--- a/data/trans_orig/P5711-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>355224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>329552</v>
+        <v>331504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>377708</v>
+        <v>379602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6081132483667017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5641649531006484</v>
+        <v>0.5675073566447293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6466033670031387</v>
+        <v>0.6498468345424001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>540</v>
@@ -765,19 +765,19 @@
         <v>553240</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>521710</v>
+        <v>525678</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>583440</v>
+        <v>584413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5998272798125391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.565641393987887</v>
+        <v>0.5699433478729559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6325692768114844</v>
+        <v>0.6336244877442834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>885</v>
@@ -786,19 +786,19 @@
         <v>908464</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>870258</v>
+        <v>868591</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>947026</v>
+        <v>944940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6030401965933504</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5776788629399896</v>
+        <v>0.5765721108306258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6286376191883321</v>
+        <v>0.6272525601251228</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>134905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114707</v>
+        <v>115193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156729</v>
+        <v>156882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2309465112287195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1963682667985974</v>
+        <v>0.1971999820916194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2683063168325604</v>
+        <v>0.2685690504575918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -836,19 +836,19 @@
         <v>174564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150041</v>
+        <v>151370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>201222</v>
+        <v>199260</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1892640191519495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.162675500722694</v>
+        <v>0.1641163454232721</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2181664010655274</v>
+        <v>0.2160394449518668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -857,19 +857,19 @@
         <v>309470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>278143</v>
+        <v>279082</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341368</v>
+        <v>344518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2054265688145606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1846318353842326</v>
+        <v>0.1852550670852882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2266007978384532</v>
+        <v>0.2286915133968333</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>62484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49001</v>
+        <v>49099</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79941</v>
+        <v>79424</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1069665698966128</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08388605576635014</v>
+        <v>0.08405413887032311</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1368514372948842</v>
+        <v>0.1359669859019607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -907,19 +907,19 @@
         <v>101017</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82958</v>
+        <v>82991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120763</v>
+        <v>124965</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1095237815839002</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0899436495608316</v>
+        <v>0.08997916593272115</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1309325837960121</v>
+        <v>0.1354877499942383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>158</v>
@@ -928,19 +928,19 @@
         <v>163501</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139516</v>
+        <v>141779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>187562</v>
+        <v>188009</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1085322127300642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09261103533794796</v>
+        <v>0.09411315442517573</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1245041795030134</v>
+        <v>0.124800734232041</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>24942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15340</v>
+        <v>16871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36453</v>
+        <v>37705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04269807950354162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02626043161806485</v>
+        <v>0.0288811973477142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06240430739129417</v>
+        <v>0.06454714828410779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -978,19 +978,19 @@
         <v>76943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62141</v>
+        <v>60653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96066</v>
+        <v>94291</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0834226069650801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06737349017733162</v>
+        <v>0.06576069933442452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1041557612726699</v>
+        <v>0.1022310410185578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -999,19 +999,19 @@
         <v>101885</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82853</v>
+        <v>83803</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122073</v>
+        <v>123385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06763151183642992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05499791335530362</v>
+        <v>0.05562824697850723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08103257765990501</v>
+        <v>0.0819029618234471</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>6587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2774</v>
+        <v>2699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12248</v>
+        <v>12608</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0112755910044244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00474958081307094</v>
+        <v>0.004619908107022698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02096676557383112</v>
+        <v>0.02158460398043503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1049,19 +1049,19 @@
         <v>16567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9158</v>
+        <v>9699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26329</v>
+        <v>26593</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01796231248653107</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009929070481425247</v>
+        <v>0.01051607333719074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02854555295973655</v>
+        <v>0.02883204248164776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1070,19 +1070,19 @@
         <v>23154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14249</v>
+        <v>14103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33779</v>
+        <v>34972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01536951002559501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009458320687215298</v>
+        <v>0.009361612917297413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02242236327341964</v>
+        <v>0.02321426747898233</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>768400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>740170</v>
+        <v>738027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>799739</v>
+        <v>795523</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7135902051021707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6873738077837516</v>
+        <v>0.6853830227973826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7426933859789931</v>
+        <v>0.7387783306174516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>646</v>
@@ -1195,19 +1195,19 @@
         <v>660497</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>629067</v>
+        <v>625673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>692270</v>
+        <v>690918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6245609719533211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5948410930977557</v>
+        <v>0.5916314878484927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6546056759913106</v>
+        <v>0.6533270927995222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1398</v>
@@ -1216,19 +1216,19 @@
         <v>1428897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1382841</v>
+        <v>1382040</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1473436</v>
+        <v>1470160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6694775212146141</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6478989917346415</v>
+        <v>0.6475237773595289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6903452366628051</v>
+        <v>0.6888100523665119</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>203022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177028</v>
+        <v>178814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>228827</v>
+        <v>229114</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1885400823883958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1644001640473512</v>
+        <v>0.1660591355647351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2125042692402141</v>
+        <v>0.2127715168101815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>213</v>
@@ -1266,19 +1266,19 @@
         <v>220094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192073</v>
+        <v>192824</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247550</v>
+        <v>247903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2081189978207907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.181622674524432</v>
+        <v>0.1823328355507673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2340815397832294</v>
+        <v>0.2344148719773155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>413</v>
@@ -1287,19 +1287,19 @@
         <v>423115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>383224</v>
+        <v>389747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>461167</v>
+        <v>461620</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1982411488446961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1795510315055473</v>
+        <v>0.1826070391593444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2160692308012436</v>
+        <v>0.2162817436401827</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>76262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60761</v>
+        <v>60874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94236</v>
+        <v>95024</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07082248484136645</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05642679922533386</v>
+        <v>0.05653147754105513</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08751423050470318</v>
+        <v>0.08824558530500261</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>105</v>
@@ -1337,19 +1337,19 @@
         <v>108643</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90563</v>
+        <v>91734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128832</v>
+        <v>128783</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.102732003785804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08563534788716347</v>
+        <v>0.08674333172827239</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1218224705348049</v>
+        <v>0.1217761920731747</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1358,19 +1358,19 @@
         <v>184905</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160893</v>
+        <v>159876</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>212721</v>
+        <v>212831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08663318512951286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07538276979500011</v>
+        <v>0.07490625936476278</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09966581408054884</v>
+        <v>0.09971724587394155</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>24671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15919</v>
+        <v>15734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37635</v>
+        <v>36350</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02291115759260141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01478323778352312</v>
+        <v>0.01461122733231895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03495043738412167</v>
+        <v>0.03375744051360913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1408,19 +1408,19 @@
         <v>56264</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42330</v>
+        <v>43095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70551</v>
+        <v>73374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05320268810970178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04002707282352609</v>
+        <v>0.04075056251453495</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06671293249353435</v>
+        <v>0.06938215569306108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1429,19 +1429,19 @@
         <v>80935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63187</v>
+        <v>64684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101095</v>
+        <v>100772</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03792016826145706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02960489251166788</v>
+        <v>0.03030643289258306</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04736589428098037</v>
+        <v>0.04721436831621022</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>945</v>
+        <v>1635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11442</v>
+        <v>11541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004136070075465625</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0008774950903436282</v>
+        <v>0.00151828904794102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01062617934018761</v>
+        <v>0.01071733093786564</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1479,19 +1479,19 @@
         <v>12040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6427</v>
+        <v>6287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21793</v>
+        <v>20587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01138533833038245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006077691437106221</v>
+        <v>0.005945316021015778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0206070217782915</v>
+        <v>0.01946714508194623</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1500,19 +1500,19 @@
         <v>16494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10051</v>
+        <v>9443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28092</v>
+        <v>26514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007727976549719882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004709157439137427</v>
+        <v>0.0044244265172709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01316192540371193</v>
+        <v>0.01242257414781522</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>846703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>819126</v>
+        <v>814279</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>873564</v>
+        <v>873242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7549106843272864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.730322738195433</v>
+        <v>0.7260016687781192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7788591267659108</v>
+        <v>0.7785726588959715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>623</v>
@@ -1625,19 +1625,19 @@
         <v>625674</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>595031</v>
+        <v>595411</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>657051</v>
+        <v>656928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.629488958186716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5986591959343622</v>
+        <v>0.5990412110388514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6610572236827048</v>
+        <v>0.6609335138099313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1456</v>
@@ -1646,19 +1646,19 @@
         <v>1472378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1431893</v>
+        <v>1425305</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1516382</v>
+        <v>1512716</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.695983894234384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6768470904564708</v>
+        <v>0.6737331285660744</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7167846086102009</v>
+        <v>0.715051792618881</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>187254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164879</v>
+        <v>165076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213631</v>
+        <v>215037</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1669538314610039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1470038157264363</v>
+        <v>0.1471795747094329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1904712622698364</v>
+        <v>0.1917241555876541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>244</v>
@@ -1696,19 +1696,19 @@
         <v>246836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218155</v>
+        <v>220548</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>275593</v>
+        <v>277343</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2483405620748943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.21948510748485</v>
+        <v>0.2218924411016103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2772737109269923</v>
+        <v>0.2790340820195317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>430</v>
@@ -1717,19 +1717,19 @@
         <v>434090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396150</v>
+        <v>397629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>467961</v>
+        <v>469687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2051916945395043</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1872576224037938</v>
+        <v>0.1879567333904222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.221202396720604</v>
+        <v>0.2220183934906245</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>61475</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48237</v>
+        <v>47510</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80059</v>
+        <v>77558</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0548102638293486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04300779278426185</v>
+        <v>0.04235956427866462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0713798413268505</v>
+        <v>0.06914966257975058</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -1767,19 +1767,19 @@
         <v>81797</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65409</v>
+        <v>64320</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98875</v>
+        <v>100395</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08229599322553612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06580792893857645</v>
+        <v>0.06471185365210687</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09947819319984054</v>
+        <v>0.1010074896672794</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -1788,19 +1788,19 @@
         <v>143272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121524</v>
+        <v>119579</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>167199</v>
+        <v>165765</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06772386226654589</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05744355688066671</v>
+        <v>0.05652427127444</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07903375778128047</v>
+        <v>0.07835627849759146</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>19146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11793</v>
+        <v>11327</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29502</v>
+        <v>28956</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01707069038759134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01051485067730199</v>
+        <v>0.01009872822053594</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02630324063434809</v>
+        <v>0.0258167367824343</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1838,19 +1838,19 @@
         <v>32737</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23363</v>
+        <v>22158</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45774</v>
+        <v>45721</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03293657693467605</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02350543867990315</v>
+        <v>0.02229303242111662</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04605307648183782</v>
+        <v>0.04599931021028497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1859,19 +1859,19 @@
         <v>51883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39905</v>
+        <v>38899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69003</v>
+        <v>69294</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02452494727726304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0188628130377714</v>
+        <v>0.0183874909335528</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03261736097833052</v>
+        <v>0.03275465395704383</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>7015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2909</v>
+        <v>2604</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17587</v>
+        <v>15456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006254529994769792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002593758061228521</v>
+        <v>0.002321722621980383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01568068423070342</v>
+        <v>0.01378083096405573</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1909,19 +1909,19 @@
         <v>6896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2849</v>
+        <v>2914</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13480</v>
+        <v>13030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006937909578177507</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002866765834451334</v>
+        <v>0.002931453918267732</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01356233301842477</v>
+        <v>0.01310987009330408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1930,19 +1930,19 @@
         <v>13911</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7020</v>
+        <v>7005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24852</v>
+        <v>23005</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006575601682302686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003318394255400128</v>
+        <v>0.003311285400321464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01174724942881126</v>
+        <v>0.01087451500551135</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>301523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>280573</v>
+        <v>281805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>322060</v>
+        <v>320771</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6742458820991548</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6274000844753413</v>
+        <v>0.630153968148826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7201699365003837</v>
+        <v>0.717286475064765</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>229</v>
@@ -2055,19 +2055,19 @@
         <v>227544</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208434</v>
+        <v>210077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244197</v>
+        <v>244946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.666975391920245</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6109608929300658</v>
+        <v>0.6157754219904774</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7157884357382702</v>
+        <v>0.7179848155497404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>526</v>
@@ -2076,19 +2076,19 @@
         <v>529067</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>503077</v>
+        <v>503818</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>554674</v>
+        <v>555976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6710996114903488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6381328632237612</v>
+        <v>0.6390732142146354</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7035815102311518</v>
+        <v>0.7052329907967964</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>108314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90118</v>
+        <v>92513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128175</v>
+        <v>127877</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2422055303765708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2015154051996206</v>
+        <v>0.20687065030417</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.286616558453894</v>
+        <v>0.2859495824157687</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>85</v>
@@ -2126,19 +2126,19 @@
         <v>86741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70881</v>
+        <v>71299</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104027</v>
+        <v>103718</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2542550219413162</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2077653857261626</v>
+        <v>0.2089916779800899</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3049228748062764</v>
+        <v>0.3040165016936841</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>190</v>
@@ -2147,19 +2147,19 @@
         <v>195055</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>172417</v>
+        <v>170251</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>220313</v>
+        <v>219900</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2474198914757971</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2187035143307456</v>
+        <v>0.2159570441353606</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2794576166072159</v>
+        <v>0.2789347079985753</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>27668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16201</v>
+        <v>17808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39162</v>
+        <v>41408</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06187052743707622</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03622853382417405</v>
+        <v>0.03982106609246044</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08757061777928915</v>
+        <v>0.09259420417210612</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2197,19 +2197,19 @@
         <v>21154</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13777</v>
+        <v>13375</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31941</v>
+        <v>31882</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06200668886052237</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04038268068720458</v>
+        <v>0.039204308388495</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09362389225953489</v>
+        <v>0.09345098074208695</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -2218,19 +2218,19 @@
         <v>48823</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37529</v>
+        <v>36162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65733</v>
+        <v>64192</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06192945065602018</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04760410769704441</v>
+        <v>0.0458705330499995</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08337995581751785</v>
+        <v>0.08142545610873143</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>9694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4519</v>
+        <v>4583</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19187</v>
+        <v>18776</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02167806008719815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01010418521333321</v>
+        <v>0.01024924268735426</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04290562965528173</v>
+        <v>0.04198481040721628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2268,19 +2268,19 @@
         <v>4197</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1121</v>
+        <v>1158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10518</v>
+        <v>10358</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01230180740163918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003285408361446412</v>
+        <v>0.003393890085255141</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03082963082618836</v>
+        <v>0.03036205476528345</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2289,19 +2289,19 @@
         <v>13891</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7723</v>
+        <v>7456</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24308</v>
+        <v>24775</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01762053060577656</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009796634769081438</v>
+        <v>0.009458190228048606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03083369893515233</v>
+        <v>0.03142635442419396</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7640</v>
+        <v>6122</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004461089876277297</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02239413860287016</v>
+        <v>0.01794540142991819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9206</v>
+        <v>7605</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001930515772057334</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01167783764590787</v>
+        <v>0.009646098840581775</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>2271851</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2213614</v>
+        <v>2211672</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2322603</v>
+        <v>2321137</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7034149726483623</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6853835483051157</v>
+        <v>0.6847822216602802</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7191288871332144</v>
+        <v>0.7186748821537884</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2038</v>
@@ -2477,19 +2477,19 @@
         <v>2066956</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2009236</v>
+        <v>2007779</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2120883</v>
+        <v>2122697</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6235218794028826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6061099245484111</v>
+        <v>0.6056705956814579</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6397898156964478</v>
+        <v>0.6403368033649566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4265</v>
@@ -2498,19 +2498,19 @@
         <v>4338806</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4256812</v>
+        <v>4261802</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4412569</v>
+        <v>4416329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6629482495374205</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6504199251798705</v>
+        <v>0.6511824528585008</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6742188181264983</v>
+        <v>0.6747934133759379</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>633496</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>594564</v>
+        <v>591048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>680727</v>
+        <v>682106</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1961442431739152</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1840900408356431</v>
+        <v>0.1830013412246504</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2107679587492749</v>
+        <v>0.2111949529863846</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>704</v>
@@ -2548,19 +2548,19 @@
         <v>728235</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>679277</v>
+        <v>679748</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>775609</v>
+        <v>776246</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2196807710558036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2049120545416136</v>
+        <v>0.205054096810089</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2339716115837107</v>
+        <v>0.2341637490362416</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1330</v>
@@ -2569,19 +2569,19 @@
         <v>1361731</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1298358</v>
+        <v>1295238</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1426326</v>
+        <v>1429538</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2080657512555068</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1983826885023467</v>
+        <v>0.1979059955843335</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2179356593527421</v>
+        <v>0.2184263281286994</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>227889</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>200514</v>
+        <v>200655</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>261674</v>
+        <v>258983</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07055953132247099</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06208358730051159</v>
+        <v>0.06212717025911609</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08101991393673638</v>
+        <v>0.0801869800761302</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>298</v>
@@ -2619,19 +2619,19 @@
         <v>312612</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>280927</v>
+        <v>278298</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>347265</v>
+        <v>347210</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09430307009849033</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08474484505768445</v>
+        <v>0.08395187956228591</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1047564893289813</v>
+        <v>0.1047400271579661</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>521</v>
@@ -2640,19 +2640,19 @@
         <v>540501</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>495992</v>
+        <v>497848</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>588099</v>
+        <v>587421</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08258589267977702</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07578508321395044</v>
+        <v>0.07606865758276236</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08985866729328264</v>
+        <v>0.08975509970933099</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>78453</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>63440</v>
+        <v>62071</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>99628</v>
+        <v>97400</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02429092118536951</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01964231090444683</v>
+        <v>0.01921857618113243</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03084697802333445</v>
+        <v>0.03015727589693226</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>160</v>
@@ -2690,19 +2690,19 @@
         <v>170141</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>145760</v>
+        <v>143910</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>198301</v>
+        <v>195045</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05132510557051793</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04397018513583993</v>
+        <v>0.04341230009253571</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05981973069283059</v>
+        <v>0.05883753982289038</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>235</v>
@@ -2711,19 +2711,19 @@
         <v>248595</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>217012</v>
+        <v>218527</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>282847</v>
+        <v>283737</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03798403043428252</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03315842435834167</v>
+        <v>0.03338982915416302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04321768869577584</v>
+        <v>0.04335356559377011</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>18055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10856</v>
+        <v>10300</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30034</v>
+        <v>29818</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005590331669882034</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003361233707604829</v>
+        <v>0.003189220293199383</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.009299039211855141</v>
+        <v>0.009232352401788988</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -2761,19 +2761,19 @@
         <v>37025</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25951</v>
+        <v>26690</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51775</v>
+        <v>52936</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01116917387230552</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007828455849063675</v>
+        <v>0.008051237834153459</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0156185728864784</v>
+        <v>0.01596880011283523</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>50</v>
@@ -2782,19 +2782,19 @@
         <v>55081</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>40137</v>
+        <v>40977</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>73019</v>
+        <v>72297</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008416076093013144</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006132812510814864</v>
+        <v>0.006261135039025465</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01115693408865793</v>
+        <v>0.0110466362599816</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>718903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>686375</v>
+        <v>690095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>748618</v>
+        <v>750450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6913590506473082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6600774592874606</v>
+        <v>0.6636550544426116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7199355979876646</v>
+        <v>0.7216974165122572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>615</v>
@@ -3147,19 +3147,19 @@
         <v>670542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>638191</v>
+        <v>638758</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>704091</v>
+        <v>705737</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5999620417639667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5710156848745102</v>
+        <v>0.5715236081537221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6299794336204272</v>
+        <v>0.6314523946889243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1285</v>
@@ -3168,19 +3168,19 @@
         <v>1389444</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1341068</v>
+        <v>1340131</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1429195</v>
+        <v>1434379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6440126103863486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6215900901384002</v>
+        <v>0.6211557301133117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.662437341950844</v>
+        <v>0.6648398299330562</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>195597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172310</v>
+        <v>171109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223647</v>
+        <v>220506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1881034527960037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1657079220615251</v>
+        <v>0.1645534564523299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2150780268557296</v>
+        <v>0.2120579635712314</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -3218,19 +3218,19 @@
         <v>292205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261826</v>
+        <v>262915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>321642</v>
+        <v>323634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2614481565833667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2342666407598792</v>
+        <v>0.2352409398493904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2877862161702339</v>
+        <v>0.2895690113251132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>457</v>
@@ -3239,19 +3239,19 @@
         <v>487802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>450742</v>
+        <v>448266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>527090</v>
+        <v>532739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2260982480169127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2089207352732751</v>
+        <v>0.2077731457626395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2443080873662753</v>
+        <v>0.2469263216339572</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>89694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72691</v>
+        <v>71552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110162</v>
+        <v>109597</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.086257423708163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06990600977420079</v>
+        <v>0.06881084026542615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1059416335320694</v>
+        <v>0.1053980799589498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -3289,19 +3289,19 @@
         <v>90628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72765</v>
+        <v>74203</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>110795</v>
+        <v>109086</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08108893996277494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06510626675883238</v>
+        <v>0.0663927852093074</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09913278141657036</v>
+        <v>0.09760368663491768</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>169</v>
@@ -3310,19 +3310,19 @@
         <v>180322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154011</v>
+        <v>155382</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>208773</v>
+        <v>207813</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0835799913733357</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07138473334081745</v>
+        <v>0.07202008439659209</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0967671480539344</v>
+        <v>0.0963219861947497</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>29152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19245</v>
+        <v>19572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41419</v>
+        <v>41459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02803485395169142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01850721025809931</v>
+        <v>0.01882228824317475</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0398324922509366</v>
+        <v>0.03987077982057258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3360,19 +3360,19 @@
         <v>48920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35822</v>
+        <v>36987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64042</v>
+        <v>64240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04377092569642893</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03205183224715491</v>
+        <v>0.0330938442742821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05730130204570732</v>
+        <v>0.0574782627147365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3381,19 +3381,19 @@
         <v>78072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60839</v>
+        <v>60031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98163</v>
+        <v>95047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0361866194187141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02819908862790075</v>
+        <v>0.02782461488314197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0454991019063154</v>
+        <v>0.04405474020928501</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>6494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2768</v>
+        <v>2787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13405</v>
+        <v>12730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006245218896833701</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002662246452194392</v>
+        <v>0.00267990734219042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0128911519458154</v>
+        <v>0.01224237456252836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3431,19 +3431,19 @@
         <v>15345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8365</v>
+        <v>9158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25908</v>
+        <v>25559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01372993599346272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007484734075931146</v>
+        <v>0.008193661207717444</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02318084918803608</v>
+        <v>0.02286838724340641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -3452,19 +3452,19 @@
         <v>21839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13873</v>
+        <v>13988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33148</v>
+        <v>35193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01012253080468891</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006430175388234045</v>
+        <v>0.006483319652242371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01536435661734456</v>
+        <v>0.01631215170986531</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>716533</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>682746</v>
+        <v>688431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>743428</v>
+        <v>747016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7340837345575165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6994698602690248</v>
+        <v>0.7052937392165087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7616381780095383</v>
+        <v>0.765314170377426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>691</v>
@@ -3577,19 +3577,19 @@
         <v>737645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>705370</v>
+        <v>707001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>767390</v>
+        <v>771178</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6741030180921278</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6446079887263417</v>
+        <v>0.6460984007648201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7012853615657542</v>
+        <v>0.7047472781322022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1379</v>
@@ -3598,19 +3598,19 @@
         <v>1454178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1407432</v>
+        <v>1409831</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1493636</v>
+        <v>1495836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7023815863729355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.679802728502699</v>
+        <v>0.6809615732715959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.721440063868428</v>
+        <v>0.7225027310215038</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>188272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164850</v>
+        <v>162325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>216232</v>
+        <v>217071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1928834061586519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.168888260066881</v>
+        <v>0.1663006017029817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2215290260068053</v>
+        <v>0.2223879555914642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -3648,19 +3648,19 @@
         <v>245548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219650</v>
+        <v>219201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273777</v>
+        <v>274982</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2243963283527206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2007292183493904</v>
+        <v>0.2003182182707794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2501937043449858</v>
+        <v>0.251294551762717</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>401</v>
@@ -3669,19 +3669,19 @@
         <v>433820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>396990</v>
+        <v>398631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>474397</v>
+        <v>476429</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2095392146917497</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.19174978744156</v>
+        <v>0.1925425906601445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2291384006741562</v>
+        <v>0.2301198057447267</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>59191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44773</v>
+        <v>45256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>76144</v>
+        <v>77006</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06064064022025985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04587004947764851</v>
+        <v>0.04636497727199864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07800946626121615</v>
+        <v>0.07889239402409623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -3719,19 +3719,19 @@
         <v>80929</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62433</v>
+        <v>61547</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99162</v>
+        <v>100981</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07395730589628347</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05705444972953445</v>
+        <v>0.05624499143053723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09061963908264113</v>
+        <v>0.09228239784708915</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -3740,19 +3740,19 @@
         <v>140119</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>117271</v>
+        <v>116572</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167325</v>
+        <v>164468</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06767901744320337</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05664299481824431</v>
+        <v>0.05630540942393047</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0808195400522168</v>
+        <v>0.07943954069224769</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>4939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1894</v>
+        <v>1868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11907</v>
+        <v>11806</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005060071565836747</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001940304041423672</v>
+        <v>0.001913540938155361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01219866539901347</v>
+        <v>0.0120954796823302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3790,19 +3790,19 @@
         <v>19028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12362</v>
+        <v>11490</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29820</v>
+        <v>29611</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01738897632917007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01129679232975666</v>
+        <v>0.01049983714573419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02725109852525695</v>
+        <v>0.0270605923951912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3811,19 +3811,19 @@
         <v>23967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16194</v>
+        <v>15462</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35417</v>
+        <v>35574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01157637861905973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007821723318180152</v>
+        <v>0.007468272386961105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01710684074650128</v>
+        <v>0.01718260198536664</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>7157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2985</v>
+        <v>2873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15718</v>
+        <v>16596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007332147497734941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003057815237143918</v>
+        <v>0.002943766686171314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01610296491761372</v>
+        <v>0.0170027068413245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3861,19 +3861,19 @@
         <v>11112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5887</v>
+        <v>5241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19534</v>
+        <v>21099</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01015437132969808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005380285718819155</v>
+        <v>0.004789140033162206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01785096475514792</v>
+        <v>0.01928193739484018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -3882,19 +3882,19 @@
         <v>18268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10427</v>
+        <v>11063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30329</v>
+        <v>29820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008823802873051768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005036120562696013</v>
+        <v>0.005343586526030025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01464926753719422</v>
+        <v>0.0144032633358686</v>
       </c>
     </row>
     <row r="15">
@@ -3986,19 +3986,19 @@
         <v>632782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>602324</v>
+        <v>603763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>661227</v>
+        <v>663106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7149151782307416</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6805039084949465</v>
+        <v>0.6821295726607243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.747052072166151</v>
+        <v>0.7491752587034739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>580</v>
@@ -4007,19 +4007,19 @@
         <v>615784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>587813</v>
+        <v>588772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>641850</v>
+        <v>641512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7046530350392444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6726452035784467</v>
+        <v>0.6737429250359558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7344805339616133</v>
+        <v>0.7340933054692944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1183</v>
@@ -4028,19 +4028,19 @@
         <v>1248566</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1207932</v>
+        <v>1208061</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1285849</v>
+        <v>1284947</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7098168721014165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6867158379827409</v>
+        <v>0.6867894598799852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7310120278059202</v>
+        <v>0.7304995063182483</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>206639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180100</v>
+        <v>180029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>236001</v>
+        <v>234513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.233460143363903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2034762643457544</v>
+        <v>0.2033960801258506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2666326281469911</v>
+        <v>0.2649515831257304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -4078,19 +4078,19 @@
         <v>201146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176626</v>
+        <v>177233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226322</v>
+        <v>227702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2301746035113017</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2021168627667692</v>
+        <v>0.2028107045216595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2589838391938827</v>
+        <v>0.2605639865068394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -4099,19 +4099,19 @@
         <v>407785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374592</v>
+        <v>373701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>444521</v>
+        <v>445501</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.231827863667929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2129576813923982</v>
+        <v>0.2124511241750034</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.252712370721288</v>
+        <v>0.2532698760132759</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>35691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23992</v>
+        <v>24818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49512</v>
+        <v>51641</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04032319653014255</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02710585571826726</v>
+        <v>0.02803881679227077</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05593819322694513</v>
+        <v>0.0583437638577415</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -4149,19 +4149,19 @@
         <v>45187</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32588</v>
+        <v>32592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59422</v>
+        <v>58939</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05170773608539905</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03729129231391873</v>
+        <v>0.0372958506527678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06799817254769869</v>
+        <v>0.06744499022670622</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -4170,19 +4170,19 @@
         <v>80877</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>64032</v>
+        <v>62847</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>100103</v>
+        <v>101265</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04597911720002749</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.036402640341067</v>
+        <v>0.03572899273146206</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05690899741277752</v>
+        <v>0.0575698360042216</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>7024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2964</v>
+        <v>3013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15077</v>
+        <v>13428</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007935284192180567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003348411569251646</v>
+        <v>0.003403649167635915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01703445695775797</v>
+        <v>0.01517143178587715</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4220,19 +4220,19 @@
         <v>9066</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4089</v>
+        <v>4073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16770</v>
+        <v>16219</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01037392048938897</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004679236928535506</v>
+        <v>0.004660606592782548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01918996634933492</v>
+        <v>0.0185602507248321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4241,19 +4241,19 @@
         <v>16089</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9721</v>
+        <v>9103</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26006</v>
+        <v>25004</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009146816145033617</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005526627401974952</v>
+        <v>0.005175102843938027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01478446950406434</v>
+        <v>0.01421498447067832</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>2979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8015</v>
+        <v>8042</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003366197683032287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001089616140398398</v>
+        <v>0.001086288473558165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0090557695373764</v>
+        <v>0.009085815536452472</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11123</v>
+        <v>11288</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003090704874665984</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01272825016544717</v>
+        <v>0.01291752419396313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4312,19 +4312,19 @@
         <v>5680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1913</v>
+        <v>1949</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12499</v>
+        <v>14783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003229330885593458</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001087553972782271</v>
+        <v>0.00110794234247229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00710569563137793</v>
+        <v>0.00840439864858589</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>386407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>365459</v>
+        <v>367459</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>405616</v>
+        <v>404609</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7732475842931269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7313289548908549</v>
+        <v>0.7353315069692058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8116891522416922</v>
+        <v>0.8096737370292004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>311</v>
@@ -4437,19 +4437,19 @@
         <v>340528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>321271</v>
+        <v>319590</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>358163</v>
+        <v>359638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7556493184488509</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7129165584039401</v>
+        <v>0.7091855884837542</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.794781954769732</v>
+        <v>0.7980559383305522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>668</v>
@@ -4458,19 +4458,19 @@
         <v>726935</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>695486</v>
+        <v>696839</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>752181</v>
+        <v>755137</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7649028311064688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7318113645223004</v>
+        <v>0.7332344460379151</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7914665343302714</v>
+        <v>0.7945777121220267</v>
       </c>
     </row>
     <row r="23">
@@ -4487,19 +4487,19 @@
         <v>86713</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>69303</v>
+        <v>69575</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>107147</v>
+        <v>104610</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1735233552750921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1386830783329703</v>
+        <v>0.1392291354880268</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2144150186492168</v>
+        <v>0.2093381910768493</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>79</v>
@@ -4508,19 +4508,19 @@
         <v>85922</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>68155</v>
+        <v>68870</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>102278</v>
+        <v>104920</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1906647845445792</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1512387865758855</v>
+        <v>0.1528269571883313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2269602887728721</v>
+        <v>0.2328236134505778</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>157</v>
@@ -4529,19 +4529,19 @@
         <v>172635</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>149218</v>
+        <v>148813</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>201910</v>
+        <v>201140</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1816514855003183</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1570113175174919</v>
+        <v>0.1565849350472065</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2124553599693482</v>
+        <v>0.2116450317318992</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>25636</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16079</v>
+        <v>16522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38246</v>
+        <v>37464</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05130095478574297</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03217589989102129</v>
+        <v>0.03306160864085435</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07653499465575445</v>
+        <v>0.07496952919397978</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -4579,19 +4579,19 @@
         <v>21472</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12922</v>
+        <v>12431</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32638</v>
+        <v>33196</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04764711409071346</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02867470104890085</v>
+        <v>0.02758466718187162</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07242461733439637</v>
+        <v>0.07366391391978795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -4600,19 +4600,19 @@
         <v>47108</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35355</v>
+        <v>33803</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>64276</v>
+        <v>62164</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04956837505014898</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03720137995360257</v>
+        <v>0.03556850503741772</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0676330273870971</v>
+        <v>0.06541081871001761</v>
       </c>
     </row>
     <row r="25">
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4913</v>
+        <v>5852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001928105646038001</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009831600446209034</v>
+        <v>0.01171099218920025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9831</v>
+        <v>8000</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003862159918603051</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02181513091132873</v>
+        <v>0.0177523067227722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9729</v>
+        <v>10720</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002845196324004221</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01023747471255397</v>
+        <v>0.01127969814342735</v>
       </c>
     </row>
     <row r="26">
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4492</v>
+        <v>4903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002176622997253367</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009968688798844853</v>
+        <v>0.01088088633337319</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4947</v>
+        <v>4917</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001032112019059598</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.005205388801269036</v>
+        <v>0.005173479383397178</v>
       </c>
     </row>
     <row r="27">
@@ -4838,19 +4838,19 @@
         <v>2454624</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2400408</v>
+        <v>2398740</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2504799</v>
+        <v>2503455</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7217858331870034</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7058436123264069</v>
+        <v>0.7053531176611681</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7365398103903472</v>
+        <v>0.7361447386542508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2197</v>
@@ -4859,19 +4859,19 @@
         <v>2364500</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2305580</v>
+        <v>2307886</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2423042</v>
+        <v>2417988</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6686122980792253</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6519513694969697</v>
+        <v>0.6526035272384464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6851663873787363</v>
+        <v>0.6837372020445966</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4515</v>
@@ -4880,19 +4880,19 @@
         <v>4819124</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4738182</v>
+        <v>4732949</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4894658</v>
+        <v>4900470</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6946791328282815</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6830112994120195</v>
+        <v>0.682256993975469</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7055674296952027</v>
+        <v>0.7064052777005594</v>
       </c>
     </row>
     <row r="29">
@@ -4909,19 +4909,19 @@
         <v>677221</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>632372</v>
+        <v>630689</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>729081</v>
+        <v>727953</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.199137913033331</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1859497906170094</v>
+        <v>0.185454954664894</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.214387301809238</v>
+        <v>0.2140555390584353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>768</v>
@@ -4930,19 +4930,19 @@
         <v>824821</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>772742</v>
+        <v>774685</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>876511</v>
+        <v>874198</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2332355467951714</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2185092625073561</v>
+        <v>0.2190585657987141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.247851970998279</v>
+        <v>0.2471979749825299</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1388</v>
@@ -4951,19 +4951,19 @@
         <v>1502042</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1430484</v>
+        <v>1431502</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1577779</v>
+        <v>1578088</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2165201378459229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2062050235003154</v>
+        <v>0.206351753768297</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2274375945390164</v>
+        <v>0.2274821305299447</v>
       </c>
     </row>
     <row r="30">
@@ -4980,19 +4980,19 @@
         <v>210211</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>182817</v>
+        <v>180558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>243832</v>
+        <v>239305</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06181297980402422</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05375773576824828</v>
+        <v>0.05309340283916954</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07169915660967945</v>
+        <v>0.07036792830540828</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>215</v>
@@ -5001,19 +5001,19 @@
         <v>238215</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>207863</v>
+        <v>207701</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>272967</v>
+        <v>269901</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06736041890612333</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05877758270754693</v>
+        <v>0.05873187896182106</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07718705249078685</v>
+        <v>0.07632014934860151</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>406</v>
@@ -5022,19 +5022,19 @@
         <v>448427</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>409350</v>
+        <v>407335</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>500086</v>
+        <v>492517</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06464094242103031</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05900801148236288</v>
+        <v>0.05871750754732876</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07208759115516683</v>
+        <v>0.07099656632359516</v>
       </c>
     </row>
     <row r="31">
@@ -5051,19 +5051,19 @@
         <v>42078</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30054</v>
+        <v>29810</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55540</v>
+        <v>55299</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01237309754078501</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008837567260011045</v>
+        <v>0.008765636129636604</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01633151425304883</v>
+        <v>0.01626061776809849</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>72</v>
@@ -5072,19 +5072,19 @@
         <v>78754</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>62072</v>
+        <v>62657</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>96752</v>
+        <v>101057</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02226944587345702</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01755230113724737</v>
+        <v>0.01771768387507935</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0273586773685982</v>
+        <v>0.0285759241363124</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>112</v>
@@ -5093,19 +5093,19 @@
         <v>120832</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>98284</v>
+        <v>100152</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>142127</v>
+        <v>145111</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01741803856935387</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01416773479512149</v>
+        <v>0.01443695589972157</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02048766024745102</v>
+        <v>0.02091785060696727</v>
       </c>
     </row>
     <row r="32">
@@ -5122,19 +5122,19 @@
         <v>16630</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9547</v>
+        <v>9729</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27426</v>
+        <v>28116</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004890176434856401</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002807410531195161</v>
+        <v>0.002860681327494176</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008064654477382712</v>
+        <v>0.008267654862476895</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -5143,19 +5143,19 @@
         <v>30138</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19702</v>
+        <v>19969</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42671</v>
+        <v>43098</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008522290346022886</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005571271013618776</v>
+        <v>0.005646767636421486</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01206598982383953</v>
+        <v>0.01218699797618941</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -5164,19 +5164,19 @@
         <v>46769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>34354</v>
+        <v>33798</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62574</v>
+        <v>64181</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006741748335411371</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004952079472416339</v>
+        <v>0.004871945601757124</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009020051011320243</v>
+        <v>0.009251773781580519</v>
       </c>
     </row>
     <row r="33">
@@ -5508,19 +5508,19 @@
         <v>567849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>532302</v>
+        <v>534364</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>603266</v>
+        <v>602517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5038808951505539</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4723379436426316</v>
+        <v>0.4741674801737547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5353076827367083</v>
+        <v>0.5346433167106738</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>578</v>
@@ -5529,19 +5529,19 @@
         <v>606720</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>573475</v>
+        <v>570789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>641298</v>
+        <v>644369</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4827874392569462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4563337189215753</v>
+        <v>0.4541963275664193</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5103021309869248</v>
+        <v>0.5127464196821835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1109</v>
@@ -5550,19 +5550,19 @@
         <v>1174569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1124915</v>
+        <v>1123415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1220903</v>
+        <v>1227240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4927600699953428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4719290219459793</v>
+        <v>0.4712998960890318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5121983162241218</v>
+        <v>0.51485685827951</v>
       </c>
     </row>
     <row r="5">
@@ -5579,19 +5579,19 @@
         <v>397632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363847</v>
+        <v>364115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431396</v>
+        <v>428839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3528385938787854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3228593828235806</v>
+        <v>0.3230972539357816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3827990928775276</v>
+        <v>0.3805298985528351</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -5600,19 +5600,19 @@
         <v>435045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402105</v>
+        <v>402000</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468880</v>
+        <v>470258</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3461799772730286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3199686488506714</v>
+        <v>0.3198845360962025</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3731033552843873</v>
+        <v>0.3741999914667234</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>791</v>
@@ -5621,19 +5621,19 @@
         <v>832677</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>785345</v>
+        <v>783371</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>882332</v>
+        <v>878300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3493280590749249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3294714014418587</v>
+        <v>0.3286433639665496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3701597053997756</v>
+        <v>0.3684680604830963</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>123898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102769</v>
+        <v>102982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146113</v>
+        <v>147331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.109940786357432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09119235863291512</v>
+        <v>0.09138084024659263</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1296531499574264</v>
+        <v>0.1307339767853733</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -5671,19 +5671,19 @@
         <v>161539</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139286</v>
+        <v>138469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185122</v>
+        <v>187701</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1285416974074451</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1108347126850253</v>
+        <v>0.1101846539158622</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1473076877122378</v>
+        <v>0.1493596674471232</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -5692,19 +5692,19 @@
         <v>285436</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251963</v>
+        <v>252580</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>316889</v>
+        <v>320745</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1197474998973179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1057044130445085</v>
+        <v>0.105963462059212</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1329424492163979</v>
+        <v>0.1345603592286228</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>26241</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16131</v>
+        <v>17115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37190</v>
+        <v>37607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02328497174733571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01431361786160385</v>
+        <v>0.01518730837100038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0330009195933958</v>
+        <v>0.03337016791431822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -5742,19 +5742,19 @@
         <v>42062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29840</v>
+        <v>30505</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55261</v>
+        <v>56876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03347004962292804</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02374429677233647</v>
+        <v>0.02427361903525052</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04397304783036584</v>
+        <v>0.04525831227603678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -5763,19 +5763,19 @@
         <v>68303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53701</v>
+        <v>53199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85510</v>
+        <v>87031</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02865471631730899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02252882103443003</v>
+        <v>0.02231814877816259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03587353632182781</v>
+        <v>0.03651177225891235</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>11331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6150</v>
+        <v>5938</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19693</v>
+        <v>19830</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01005475286589301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005457255134194681</v>
+        <v>0.005268651315500988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01747455235926852</v>
+        <v>0.01759589529739403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5813,19 +5813,19 @@
         <v>11337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6158</v>
+        <v>5926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19832</v>
+        <v>19766</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009020836439652059</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004900016460069793</v>
+        <v>0.004715727958158849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01578060529188654</v>
+        <v>0.01572835549697657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -5834,19 +5834,19 @@
         <v>22668</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15102</v>
+        <v>14535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33895</v>
+        <v>33958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009509654715105365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006335591034350763</v>
+        <v>0.006097640659682666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0142197258855666</v>
+        <v>0.0142462174546403</v>
       </c>
     </row>
     <row r="9">
@@ -5938,19 +5938,19 @@
         <v>498459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>466240</v>
+        <v>470853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>528304</v>
+        <v>529932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5493097913958456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5138036999698286</v>
+        <v>0.5188872984774617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5821997107878245</v>
+        <v>0.5839936414446304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -5959,19 +5959,19 @@
         <v>523596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>494420</v>
+        <v>492246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>558044</v>
+        <v>556267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5216864809762506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4926170374441961</v>
+        <v>0.4904505995928518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5560085403063417</v>
+        <v>0.5542380998323647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>982</v>
@@ -5980,19 +5980,19 @@
         <v>1022055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>980520</v>
+        <v>980259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1065032</v>
+        <v>1065438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5348026564589514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.513069021563841</v>
+        <v>0.5129325860998607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5572906723992946</v>
+        <v>0.5575033330190075</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>311429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>284223</v>
+        <v>279955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341570</v>
+        <v>335940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3431995098232172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3132186787132122</v>
+        <v>0.3085147385387</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3764157027041139</v>
+        <v>0.3702114154752537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -6030,19 +6030,19 @@
         <v>349479</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318401</v>
+        <v>319505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>382233</v>
+        <v>380355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3482050475653277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3172396110176668</v>
+        <v>0.3183395224524489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3808388316429858</v>
+        <v>0.3789675202186736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -6051,19 +6051,19 @@
         <v>660908</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619170</v>
+        <v>620899</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>702209</v>
+        <v>698677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3458283045025473</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3239879650779933</v>
+        <v>0.3248931308053011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3674394151283704</v>
+        <v>0.365591425264671</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>86774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>70209</v>
+        <v>69197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107093</v>
+        <v>106679</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09562670500278674</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07737158988662866</v>
+        <v>0.07625602921760498</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1180177083260984</v>
+        <v>0.1175624325684641</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -6101,19 +6101,19 @@
         <v>100324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>80584</v>
+        <v>83129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121088</v>
+        <v>123951</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09995841570716739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08029000546788874</v>
+        <v>0.08282634033001311</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1206465848740886</v>
+        <v>0.1234989940701913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>179</v>
@@ -6122,19 +6122,19 @@
         <v>187099</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>161072</v>
+        <v>161366</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>212907</v>
+        <v>212851</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09790162103354103</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08428310845231264</v>
+        <v>0.08443685948802082</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1114061273646301</v>
+        <v>0.1113767600529872</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>7551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3276</v>
+        <v>2897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15411</v>
+        <v>15406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008320862846944017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003609716808348836</v>
+        <v>0.003192160416947411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0169826794219719</v>
+        <v>0.01697713277070808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6172,19 +6172,19 @@
         <v>23760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15272</v>
+        <v>14441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36250</v>
+        <v>34844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02367296919061009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01521660807205651</v>
+        <v>0.01438785625362877</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03611797351953471</v>
+        <v>0.03471678753027054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -6193,19 +6193,19 @@
         <v>31310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21924</v>
+        <v>21290</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45102</v>
+        <v>45434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01638344024661462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01147219243343281</v>
+        <v>0.01114016848938461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02359991747051199</v>
+        <v>0.02377404127196267</v>
       </c>
     </row>
     <row r="14">
@@ -6225,16 +6225,16 @@
         <v>958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9620</v>
+        <v>8696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003543130931206547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001055234836954104</v>
+        <v>0.001055370119647043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01060139347152323</v>
+        <v>0.009583126353799017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6243,19 +6243,19 @@
         <v>6501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2291</v>
+        <v>2249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13412</v>
+        <v>13587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006477086560644245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002282814604062993</v>
+        <v>0.002240702958503972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01336310406007448</v>
+        <v>0.0135369964349577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -6264,19 +6264,19 @@
         <v>9716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4786</v>
+        <v>4811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18509</v>
+        <v>18284</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0050839777583457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002504396833494598</v>
+        <v>0.002517243122793502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009684880729073806</v>
+        <v>0.009567553233523492</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>494275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>464228</v>
+        <v>465335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>523470</v>
+        <v>522513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6014283302326662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5648667407205865</v>
+        <v>0.5662135152836046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6369515762423101</v>
+        <v>0.6357869840734374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>399</v>
@@ -6389,19 +6389,19 @@
         <v>418127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>391646</v>
+        <v>390806</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>446247</v>
+        <v>444689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5422757721401166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5079329686429642</v>
+        <v>0.5068435937514701</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.578745674880478</v>
+        <v>0.5767249797709542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>872</v>
@@ -6410,19 +6410,19 @@
         <v>912402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>874006</v>
+        <v>872649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>953666</v>
+        <v>950003</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5727948597013274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.548690486575252</v>
+        <v>0.5478380611663554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5986996435890053</v>
+        <v>0.5964005535781567</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>273744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>245341</v>
+        <v>246384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303292</v>
+        <v>300819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3330887722554729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2985283061718078</v>
+        <v>0.2997966828953599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3690418498543849</v>
+        <v>0.3660328629877118</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>259</v>
@@ -6460,19 +6460,19 @@
         <v>274440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>248745</v>
+        <v>248298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301176</v>
+        <v>300853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3559260654793233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3226018671123482</v>
+        <v>0.3220226652230575</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3906002597674829</v>
+        <v>0.3901819553425864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>518</v>
@@ -6481,19 +6481,19 @@
         <v>548184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>510582</v>
+        <v>512881</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>584870</v>
+        <v>588779</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3441434245583803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.320537272589932</v>
+        <v>0.3219801958469728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3671744408398514</v>
+        <v>0.3696281758319759</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>42889</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30845</v>
+        <v>30922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56459</v>
+        <v>57818</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05218653768321836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03753157884744256</v>
+        <v>0.03762573417217847</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06869892440638019</v>
+        <v>0.07035272794307314</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -6531,19 +6531,19 @@
         <v>71493</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57081</v>
+        <v>55100</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88787</v>
+        <v>90570</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09272078060890988</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07402936154930034</v>
+        <v>0.07146074967921727</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.115149204876924</v>
+        <v>0.1174623726833864</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>104</v>
@@ -6552,19 +6552,19 @@
         <v>114382</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93467</v>
+        <v>93771</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135663</v>
+        <v>137474</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07180760036840259</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05867749250461589</v>
+        <v>0.05886810179384568</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08516781107585918</v>
+        <v>0.08630472736833034</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>8781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4207</v>
+        <v>4198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16434</v>
+        <v>16224</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01068429667885937</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005118764173458475</v>
+        <v>0.005107757199434838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01999674865256439</v>
+        <v>0.01974133027003255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -6602,19 +6602,19 @@
         <v>5002</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1858</v>
+        <v>1888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11274</v>
+        <v>10753</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00648708692642765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002410230052157933</v>
+        <v>0.002448767764948047</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01462086823675463</v>
+        <v>0.01394623548011496</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -6623,19 +6623,19 @@
         <v>13783</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7950</v>
+        <v>7926</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22585</v>
+        <v>22662</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008652589418252522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004990773626897356</v>
+        <v>0.00497605222449129</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01417839538484061</v>
+        <v>0.01422683571768206</v>
       </c>
     </row>
     <row r="20">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7452</v>
+        <v>8594</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002612063149783247</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00906790374737001</v>
+        <v>0.01045690631373965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6828</v>
+        <v>6991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002590294845222595</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008855198793884394</v>
+        <v>0.009067150315892503</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6694,19 +6694,19 @@
         <v>4144</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9365</v>
+        <v>10257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002601525953637318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006355996084735635</v>
+        <v>0.0006422525534132563</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00587903350833962</v>
+        <v>0.00643950321459224</v>
       </c>
     </row>
     <row r="21">
@@ -6798,19 +6798,19 @@
         <v>364066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>341704</v>
+        <v>342435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>383528</v>
+        <v>383633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7185025898757889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6743699001583673</v>
+        <v>0.6758121433862599</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7569119768409611</v>
+        <v>0.7571190492079722</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -6819,19 +6819,19 @@
         <v>323209</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>299237</v>
+        <v>300428</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>343705</v>
+        <v>342694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6612786784385354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6122340119507299</v>
+        <v>0.6146698610096932</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7032147091464092</v>
+        <v>0.7011450812503298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>641</v>
@@ -6840,19 +6840,19 @@
         <v>687275</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>656925</v>
+        <v>654320</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>717567</v>
+        <v>715044</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6904062080743882</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6599184060491083</v>
+        <v>0.6573016977361332</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7208363928444601</v>
+        <v>0.7183024437473637</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>104710</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86812</v>
+        <v>87101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124286</v>
+        <v>124164</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2066510540138048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1713284495051336</v>
+        <v>0.171899089529878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2452845900230488</v>
+        <v>0.2450442484697594</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>109</v>
@@ -6890,19 +6890,19 @@
         <v>116524</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99391</v>
+        <v>98579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>137988</v>
+        <v>136494</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2384067033406468</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.203352945547718</v>
+        <v>0.2016901180746158</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2823214947799224</v>
+        <v>0.2792638139293998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>206</v>
@@ -6911,19 +6911,19 @@
         <v>221235</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>193146</v>
+        <v>195665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246725</v>
+        <v>249575</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2222427677822121</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1940260973361737</v>
+        <v>0.196556724286098</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2478495314400471</v>
+        <v>0.2507117874821473</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>33404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22529</v>
+        <v>23172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46519</v>
+        <v>47551</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06592421713365222</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04446120616004746</v>
+        <v>0.04573023134299986</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09180832228656281</v>
+        <v>0.09384416209132423</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -6961,19 +6961,19 @@
         <v>33935</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23649</v>
+        <v>23077</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48078</v>
+        <v>47547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06943031409376088</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0483853683312377</v>
+        <v>0.04721536483211858</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09836609817838665</v>
+        <v>0.09727959696468078</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -6982,19 +6982,19 @@
         <v>67339</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51891</v>
+        <v>50880</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86385</v>
+        <v>83109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06764567650875905</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05212701323386511</v>
+        <v>0.05111210316968402</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08677849609285064</v>
+        <v>0.08348801503906482</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>2760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7672</v>
+        <v>7458</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005446098192289809</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001546304864022028</v>
+        <v>0.001530562045912811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01514130297578257</v>
+        <v>0.01471832421315091</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -7032,19 +7032,19 @@
         <v>10636</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5084</v>
+        <v>4721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19447</v>
+        <v>19575</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02176140663099429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01040254851724504</v>
+        <v>0.009658818978961826</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03978896361284961</v>
+        <v>0.04005062892092835</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7053,19 +7053,19 @@
         <v>13396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7428</v>
+        <v>7513</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23605</v>
+        <v>24511</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01345675533871879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007462053819141699</v>
+        <v>0.007547025833557051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02371298130192931</v>
+        <v>0.02462269584740804</v>
       </c>
     </row>
     <row r="26">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5946</v>
+        <v>5592</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003476040784464216</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01173441359662573</v>
+        <v>0.01103614210079269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7103,19 +7103,19 @@
         <v>4459</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1155</v>
+        <v>1175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10919</v>
+        <v>10998</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009122897496062671</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002362626215286785</v>
+        <v>0.002403915968245507</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0223407257037712</v>
+        <v>0.02250151957878225</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -7124,19 +7124,19 @@
         <v>6220</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2181</v>
+        <v>2284</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12528</v>
+        <v>12472</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00624859229592179</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002191337114027739</v>
+        <v>0.002294435297331551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01258492605402626</v>
+        <v>0.01252892314077388</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>1924649</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1868614</v>
+        <v>1867132</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1981365</v>
+        <v>1985746</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5723156933533678</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5556531411843988</v>
+        <v>0.5552122852624415</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5891807142190034</v>
+        <v>0.5904834976190682</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1776</v>
@@ -7249,19 +7249,19 @@
         <v>1871650</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1809596</v>
+        <v>1817999</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1931546</v>
+        <v>1934528</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5316912384882656</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5140631138187195</v>
+        <v>0.5164501152992951</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5487060048641801</v>
+        <v>0.5495532607143535</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3604</v>
@@ -7270,19 +7270,19 @@
         <v>3796300</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3710386</v>
+        <v>3708077</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3873622</v>
+        <v>3878325</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5515393629607809</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5390575019577009</v>
+        <v>0.5387219979919267</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5627730006727503</v>
+        <v>0.5634562903994871</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>1087515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1033867</v>
+        <v>1032163</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1142310</v>
+        <v>1140217</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3233846129045768</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3074317747295877</v>
+        <v>0.306925154153913</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3396785264783002</v>
+        <v>0.3390560652715019</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1105</v>
@@ -7320,19 +7320,19 @@
         <v>1175489</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1122180</v>
+        <v>1114624</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1232143</v>
+        <v>1232469</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.333928254388013</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3187844259869534</v>
+        <v>0.3166379571504893</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3500222896027034</v>
+        <v>0.3501149982086855</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2145</v>
@@ -7341,19 +7341,19 @@
         <v>2263004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2186703</v>
+        <v>2181209</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2347758</v>
+        <v>2340706</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3287768865911595</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3176916845083121</v>
+        <v>0.3168934632516842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3410903158686599</v>
+        <v>0.3400656595872409</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>286965</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>256277</v>
+        <v>254319</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>321111</v>
+        <v>319832</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08533215546361445</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07620683373332461</v>
+        <v>0.0756246496188378</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09548586574353622</v>
+        <v>0.09510569192027378</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>338</v>
@@ -7391,19 +7391,19 @@
         <v>367291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>332693</v>
+        <v>331160</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>406008</v>
+        <v>407864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1043385864819925</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09451027369155396</v>
+        <v>0.09407451336078909</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1153372580368557</v>
+        <v>0.1158645268078994</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>610</v>
@@ -7412,19 +7412,19 @@
         <v>654256</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>603160</v>
+        <v>605682</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>703852</v>
+        <v>705347</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09505250473926601</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08762917062145771</v>
+        <v>0.08799554705361194</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1022579707755432</v>
+        <v>0.1024752143864893</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>45332</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33627</v>
+        <v>33199</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61016</v>
+        <v>60704</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01347993457093537</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009999320817753586</v>
+        <v>0.009872014848757231</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01814373515341185</v>
+        <v>0.01805112749487022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -7462,19 +7462,19 @@
         <v>81460</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>63521</v>
+        <v>64602</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>99152</v>
+        <v>102045</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0231407185440634</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01804493799301149</v>
+        <v>0.01835192219573289</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02816678787005199</v>
+        <v>0.02898853008344406</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>117</v>
@@ -7483,19 +7483,19 @@
         <v>126791</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>103956</v>
+        <v>106425</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>151731</v>
+        <v>151256</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0184206935384985</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01510304743307986</v>
+        <v>0.01546174452657183</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02204395882317101</v>
+        <v>0.0219749624859188</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>18454</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11124</v>
+        <v>10781</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29259</v>
+        <v>27737</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005487603707505498</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003307803156625985</v>
+        <v>0.003205817586982628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008700348950994939</v>
+        <v>0.008247956359806892</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -7533,19 +7533,19 @@
         <v>24293</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15421</v>
+        <v>15813</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36371</v>
+        <v>36468</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00690120209766542</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00438066341008581</v>
+        <v>0.004492213196410445</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01033215701225836</v>
+        <v>0.01035971293206547</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -7554,19 +7554,19 @@
         <v>42748</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30448</v>
+        <v>31981</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56518</v>
+        <v>57900</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006210552170295111</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004423620714402833</v>
+        <v>0.004646359265563556</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008211068218211362</v>
+        <v>0.008411925838611743</v>
       </c>
     </row>
     <row r="33">
@@ -7898,19 +7898,19 @@
         <v>229124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>203191</v>
+        <v>202676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251894</v>
+        <v>253985</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4606711615865666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4085308941089503</v>
+        <v>0.4074958636263239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5064518009226361</v>
+        <v>0.5106562926186223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>358</v>
@@ -7919,19 +7919,19 @@
         <v>277078</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254387</v>
+        <v>254999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>301687</v>
+        <v>299215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4454711035743822</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4089901108929738</v>
+        <v>0.4099743576835852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4850365249585718</v>
+        <v>0.4810615531443241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>554</v>
@@ -7940,19 +7940,19 @@
         <v>506202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>471177</v>
+        <v>471261</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>542089</v>
+        <v>541250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4522250273103833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.420934787594787</v>
+        <v>0.4210098323557495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.484285377692275</v>
+        <v>0.4835363816637173</v>
       </c>
     </row>
     <row r="5">
@@ -7969,19 +7969,19 @@
         <v>131650</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111631</v>
+        <v>111063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>155402</v>
+        <v>154847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2646924961721493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2244419558110429</v>
+        <v>0.2232998160950996</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3124478134357811</v>
+        <v>0.3113310397524267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -7990,19 +7990,19 @@
         <v>172677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151776</v>
+        <v>152664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194122</v>
+        <v>194871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.277621012846422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2440182233950047</v>
+        <v>0.2454457390939526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3120988088849248</v>
+        <v>0.3133028806291228</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -8011,19 +8011,19 @@
         <v>304327</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>272996</v>
+        <v>274618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>335016</v>
+        <v>335756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2718764153213558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2438860730335712</v>
+        <v>0.2453349560432321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2992929073039329</v>
+        <v>0.29995365206795</v>
       </c>
     </row>
     <row r="6">
@@ -8040,19 +8040,19 @@
         <v>68803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53580</v>
+        <v>52932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86277</v>
+        <v>88704</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1383336206751344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1077272569436745</v>
+        <v>0.1064238450095261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1734666372803112</v>
+        <v>0.1783458901227059</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -8061,19 +8061,19 @@
         <v>84453</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71738</v>
+        <v>70096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99760</v>
+        <v>98948</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1357796428513541</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1153362662452448</v>
+        <v>0.1126971269451894</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.160389602290455</v>
+        <v>0.159083099910734</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>192</v>
@@ -8082,19 +8082,19 @@
         <v>153256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132512</v>
+        <v>129771</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176751</v>
+        <v>175538</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1369144655889662</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1183817578384089</v>
+        <v>0.1159331762021846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1579038399835504</v>
+        <v>0.1568204858638568</v>
       </c>
     </row>
     <row r="7">
@@ -8111,19 +8111,19 @@
         <v>40531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30072</v>
+        <v>30814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53603</v>
+        <v>54651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08149014625250034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06046281339385971</v>
+        <v>0.06195398668626864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1077735149869805</v>
+        <v>0.1098798467081086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -8132,19 +8132,19 @@
         <v>62566</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50455</v>
+        <v>51404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75796</v>
+        <v>75680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1005909259972294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08111891124868977</v>
+        <v>0.08264418816085953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1218613351786391</v>
+        <v>0.1216750941384898</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -8153,19 +8153,19 @@
         <v>103097</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87325</v>
+        <v>87347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120963</v>
+        <v>122154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09210377354092661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07801346890228937</v>
+        <v>0.07803327645942525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1080647354221373</v>
+        <v>0.1091289351956983</v>
       </c>
     </row>
     <row r="8">
@@ -8182,19 +8182,19 @@
         <v>27262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18665</v>
+        <v>18461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39370</v>
+        <v>39253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05481257531364946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03752681901927388</v>
+        <v>0.03711665589540869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07915671104881304</v>
+        <v>0.0789206472771997</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -8203,19 +8203,19 @@
         <v>25214</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18800</v>
+        <v>18331</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34043</v>
+        <v>33275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04053731473061235</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03022633451816201</v>
+        <v>0.0294715817995844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05473328718445316</v>
+        <v>0.05349743173007095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>72</v>
@@ -8224,19 +8224,19 @@
         <v>52476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40977</v>
+        <v>41260</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65642</v>
+        <v>66633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04688031823836807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03660801888789411</v>
+        <v>0.03686006226946432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05864276638673614</v>
+        <v>0.05952829908468316</v>
       </c>
     </row>
     <row r="9">
@@ -8328,19 +8328,19 @@
         <v>449255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>413742</v>
+        <v>412861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>482133</v>
+        <v>483875</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.469842143042875</v>
+        <v>0.4698421430428749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.432701661488422</v>
+        <v>0.4317802563309612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5042267312790105</v>
+        <v>0.5060488143985707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>731</v>
@@ -8349,19 +8349,19 @@
         <v>523583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>493724</v>
+        <v>493779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>551648</v>
+        <v>555458</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4711205055766325</v>
+        <v>0.4711205055766324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4442535025824094</v>
+        <v>0.4443024430473695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4963730743090638</v>
+        <v>0.499801534689807</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1128</v>
@@ -8370,19 +8370,19 @@
         <v>972838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>924086</v>
+        <v>921249</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1017930</v>
+        <v>1018022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4705292966367962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4469493246932748</v>
+        <v>0.4455775706662479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4923386018566459</v>
+        <v>0.492383337372518</v>
       </c>
     </row>
     <row r="11">
@@ -8399,19 +8399,19 @@
         <v>361362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326055</v>
+        <v>330088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392867</v>
+        <v>397951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3779219016297639</v>
+        <v>0.3779219016297638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.340996730184494</v>
+        <v>0.3452145271475117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4108705136715196</v>
+        <v>0.4161866794479759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -8420,19 +8420,19 @@
         <v>416865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>389445</v>
+        <v>387552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443559</v>
+        <v>445138</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3750954600157581</v>
+        <v>0.3750954600157578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3504229983266251</v>
+        <v>0.3487194434784446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3991151629751991</v>
+        <v>0.4005355766346529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>942</v>
@@ -8441,19 +8441,19 @@
         <v>778227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>733106</v>
+        <v>733777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818716</v>
+        <v>826002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3764026146811986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3545788275041956</v>
+        <v>0.3549035598322013</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3959856957530344</v>
+        <v>0.3995096543387447</v>
       </c>
     </row>
     <row r="12">
@@ -8470,19 +8470,19 @@
         <v>99319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82181</v>
+        <v>82216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121616</v>
+        <v>121688</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1038703471274433</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08594703940612287</v>
+        <v>0.08598347949924658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1271892713221521</v>
+        <v>0.1272643353759236</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>174</v>
@@ -8491,19 +8491,19 @@
         <v>110666</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95224</v>
+        <v>94607</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130250</v>
+        <v>128184</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09957747188423745</v>
+        <v>0.09957747188423742</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08568239533095351</v>
+        <v>0.0851270196513178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1171988285053359</v>
+        <v>0.1153401741070229</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>280</v>
@@ -8512,19 +8512,19 @@
         <v>209985</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>187257</v>
+        <v>184719</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>236242</v>
+        <v>239369</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.101562813408543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09056977543926606</v>
+        <v>0.0893423774417985</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1142623005867546</v>
+        <v>0.1157748462034792</v>
       </c>
     </row>
     <row r="13">
@@ -8541,19 +8541,19 @@
         <v>32304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23514</v>
+        <v>22293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44820</v>
+        <v>43772</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03378428869561596</v>
+        <v>0.03378428869561595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0245920296209414</v>
+        <v>0.02331435062797161</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04687347302227637</v>
+        <v>0.04577823626235415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -8562,19 +8562,19 @@
         <v>45444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36322</v>
+        <v>35304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55922</v>
+        <v>55849</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04089033849212982</v>
+        <v>0.04089033849212981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03268290843125191</v>
+        <v>0.03176629665107666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05031900473436411</v>
+        <v>0.05025324139738312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -8583,19 +8583,19 @@
         <v>77748</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63909</v>
+        <v>64662</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93469</v>
+        <v>94961</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0376039779678797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03091044378029693</v>
+        <v>0.03127463273177995</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0452076522971321</v>
+        <v>0.0459296648784118</v>
       </c>
     </row>
     <row r="14">
@@ -8612,19 +8612,19 @@
         <v>13942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8376</v>
+        <v>8132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22867</v>
+        <v>22829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.014581319504302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008759883174031396</v>
+        <v>0.008504187987832937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02391455661483652</v>
+        <v>0.02387470070015268</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -8633,19 +8633,19 @@
         <v>14799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9191</v>
+        <v>8664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23954</v>
+        <v>23276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0133162240312423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008270457302138854</v>
+        <v>0.007795995782269977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02155345565227571</v>
+        <v>0.02094382226698993</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -8654,19 +8654,19 @@
         <v>28741</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20912</v>
+        <v>19992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41012</v>
+        <v>39800</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0139012973055825</v>
+        <v>0.01390129730558251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01011463839690225</v>
+        <v>0.009669447809818207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01983636911406553</v>
+        <v>0.01924973785204981</v>
       </c>
     </row>
     <row r="15">
@@ -8758,19 +8758,19 @@
         <v>667768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>632918</v>
+        <v>636103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>702909</v>
+        <v>701321</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6403379833903962</v>
+        <v>0.6403379833903963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6069197671978741</v>
+        <v>0.6099741465447136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.674035666772095</v>
+        <v>0.6725129600776788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>889</v>
@@ -8779,19 +8779,19 @@
         <v>633181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>607133</v>
+        <v>605872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>660767</v>
+        <v>658228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6076386141749093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5826418598714911</v>
+        <v>0.5814314153259301</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6341125504116009</v>
+        <v>0.6316757619005954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1506</v>
@@ -8800,19 +8800,19 @@
         <v>1300948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1253618</v>
+        <v>1258940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1341856</v>
+        <v>1345549</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6239945781002421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6012926390928677</v>
+        <v>0.6038453179168501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6436160102697128</v>
+        <v>0.6453870563590535</v>
       </c>
     </row>
     <row r="17">
@@ -8829,19 +8829,19 @@
         <v>293403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260770</v>
+        <v>264577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>325409</v>
+        <v>323102</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2813506360718372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2500585093430243</v>
+        <v>0.253709398688845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3120427757927323</v>
+        <v>0.3098299477294008</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>488</v>
@@ -8850,19 +8850,19 @@
         <v>329165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>303789</v>
+        <v>303582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>354626</v>
+        <v>355214</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3158864906531054</v>
+        <v>0.3158864906531055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.291534094801137</v>
+        <v>0.2913354546040346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3403210042408157</v>
+        <v>0.3408852185029698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>803</v>
@@ -8871,19 +8871,19 @@
         <v>622567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>584412</v>
+        <v>582608</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>667027</v>
+        <v>661641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2986119313813556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2803108923117978</v>
+        <v>0.2794456138078595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3199369779775913</v>
+        <v>0.3173535354984468</v>
       </c>
     </row>
     <row r="18">
@@ -8900,19 +8900,19 @@
         <v>62450</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48594</v>
+        <v>48666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77809</v>
+        <v>78059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05988481635621885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04659778229711928</v>
+        <v>0.04666666997435738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07461275674698102</v>
+        <v>0.07485306743852167</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -8921,19 +8921,19 @@
         <v>45561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36541</v>
+        <v>35769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57022</v>
+        <v>56323</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04372335592357706</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03506716894903177</v>
+        <v>0.03432566165195332</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05472190751837752</v>
+        <v>0.0540512909007556</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>144</v>
@@ -8942,19 +8942,19 @@
         <v>108011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>91279</v>
+        <v>91411</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126878</v>
+        <v>127281</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05180718965367204</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04378168928987578</v>
+        <v>0.04384490124699283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06085659188213303</v>
+        <v>0.06104999504612461</v>
       </c>
     </row>
     <row r="19">
@@ -8971,19 +8971,19 @@
         <v>15293</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9496</v>
+        <v>9032</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25957</v>
+        <v>25262</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01466495583009201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009106249751674627</v>
+        <v>0.008661197269680086</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02489085898676226</v>
+        <v>0.02422478367215909</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -8992,19 +8992,19 @@
         <v>25042</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18058</v>
+        <v>17372</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34208</v>
+        <v>33451</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02403223920425854</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01732937705755076</v>
+        <v>0.01667150328770966</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03282852145195701</v>
+        <v>0.03210117239740402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -9013,19 +9013,19 @@
         <v>40336</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31138</v>
+        <v>30780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52148</v>
+        <v>53520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01934679870121439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01493514618851917</v>
+        <v>0.01476335896100966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02501248955563792</v>
+        <v>0.02567047253854899</v>
       </c>
     </row>
     <row r="20">
@@ -9042,19 +9042,19 @@
         <v>3923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1294</v>
+        <v>1317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10019</v>
+        <v>10121</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003761608351455669</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001240904284742284</v>
+        <v>0.001263330615289909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009607776010940395</v>
+        <v>0.009705203173319554</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -9063,19 +9063,19 @@
         <v>9086</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5173</v>
+        <v>4963</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15446</v>
+        <v>15093</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008719300044149617</v>
+        <v>0.008719300044149619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004964184583092922</v>
+        <v>0.004762332338098047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01482244234284297</v>
+        <v>0.01448423246633058</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -9084,19 +9084,19 @@
         <v>13009</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7901</v>
+        <v>8359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21744</v>
+        <v>22576</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006239502163515887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003789676031045565</v>
+        <v>0.004009553730207845</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01042945378281608</v>
+        <v>0.01082858857562218</v>
       </c>
     </row>
     <row r="21">
@@ -9188,19 +9188,19 @@
         <v>686909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>654729</v>
+        <v>652502</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>716926</v>
+        <v>713585</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7076803036082699</v>
+        <v>0.7076803036082697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6745268017526825</v>
+        <v>0.6722330396101005</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7386045105833531</v>
+        <v>0.7351623282362104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>880</v>
@@ -9209,19 +9209,19 @@
         <v>642585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>620162</v>
+        <v>615901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>666753</v>
+        <v>664271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7102852333560071</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6854996302530336</v>
+        <v>0.6807898685623596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7369995660480041</v>
+        <v>0.7342553589042938</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1510</v>
@@ -9230,19 +9230,19 @@
         <v>1329494</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1290416</v>
+        <v>1290058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1366582</v>
+        <v>1365999</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7089369555213362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6880994798118782</v>
+        <v>0.6879086088438421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7287140650689922</v>
+        <v>0.7284031718403039</v>
       </c>
     </row>
     <row r="23">
@@ -9259,19 +9259,19 @@
         <v>223607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196560</v>
+        <v>199746</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252595</v>
+        <v>252035</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2303684051746257</v>
+        <v>0.2303684051746256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2025034679673784</v>
+        <v>0.205786438347731</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2602330368996978</v>
+        <v>0.2596564910706441</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>362</v>
@@ -9280,19 +9280,19 @@
         <v>213398</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>191043</v>
+        <v>192799</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235275</v>
+        <v>237527</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2358804378631611</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2111708359713613</v>
+        <v>0.2131111753511409</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2600630517366335</v>
+        <v>0.2625521273673209</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>614</v>
@@ -9301,19 +9301,19 @@
         <v>437004</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>403463</v>
+        <v>402715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>473794</v>
+        <v>474295</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2330274812702281</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2151419979855081</v>
+        <v>0.214742842819674</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2526453666115714</v>
+        <v>0.2529125102153028</v>
       </c>
     </row>
     <row r="24">
@@ -9330,19 +9330,19 @@
         <v>40459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28427</v>
+        <v>28309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56938</v>
+        <v>57246</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04168284553968089</v>
+        <v>0.04168284553968087</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02928617153005366</v>
+        <v>0.02916469993124992</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05865923090772489</v>
+        <v>0.05897691894565089</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -9351,19 +9351,19 @@
         <v>28807</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20837</v>
+        <v>20822</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41156</v>
+        <v>41202</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03184221744642953</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02303242951568206</v>
+        <v>0.02301554283891135</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04549219617356822</v>
+        <v>0.04554329905864527</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -9372,19 +9372,19 @@
         <v>69267</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54222</v>
+        <v>54276</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86503</v>
+        <v>91808</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03693559885101318</v>
+        <v>0.03693559885101319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.028913173653638</v>
+        <v>0.02894182878573457</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04612675580261669</v>
+        <v>0.04895530153109925</v>
       </c>
     </row>
     <row r="25">
@@ -9401,19 +9401,19 @@
         <v>16258</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9606</v>
+        <v>9540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26364</v>
+        <v>25920</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01674989595929573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009896790150393985</v>
+        <v>0.009828278500832696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02716098440673424</v>
+        <v>0.02670400358241821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -9422,19 +9422,19 @@
         <v>14803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9751</v>
+        <v>9743</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22081</v>
+        <v>22020</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01636226329860807</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01077851213837407</v>
+        <v>0.01076915873304234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0244074018239702</v>
+        <v>0.02433945578412914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -9443,19 +9443,19 @@
         <v>31061</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21437</v>
+        <v>21997</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42370</v>
+        <v>43377</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0165628969336816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01143105220379379</v>
+        <v>0.01172950315389876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02259346146454584</v>
+        <v>0.02313012423214433</v>
       </c>
     </row>
     <row r="26">
@@ -9472,19 +9472,19 @@
         <v>3415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1138</v>
+        <v>1276</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7753</v>
+        <v>8451</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.003518549718127982</v>
+        <v>0.003518549718127981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001172495730144936</v>
+        <v>0.001314716204834433</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007987250441918824</v>
+        <v>0.00870672741813406</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -9493,19 +9493,19 @@
         <v>5093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2321</v>
+        <v>2357</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10339</v>
+        <v>11052</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005629848035793997</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002565196469566476</v>
+        <v>0.002605617994036912</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01142876698780563</v>
+        <v>0.01221686598357475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -9514,19 +9514,19 @@
         <v>8509</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4383</v>
+        <v>4413</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14652</v>
+        <v>14523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004537067423741029</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002337050383819937</v>
+        <v>0.002353341374797951</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0078131267590885</v>
+        <v>0.00774430197736096</v>
       </c>
     </row>
     <row r="27">
@@ -9618,19 +9618,19 @@
         <v>2033056</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1971019</v>
+        <v>1973553</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2094233</v>
+        <v>2096028</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5863955605849929</v>
+        <v>0.5863955605849928</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5685023757200625</v>
+        <v>0.5692331138403086</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6040410083869091</v>
+        <v>0.6045585849867264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2858</v>
@@ -9639,19 +9639,19 @@
         <v>2076427</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2019472</v>
+        <v>2023888</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2125560</v>
+        <v>2138196</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5642362146366614</v>
+        <v>0.5642362146366615</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5487598158825243</v>
+        <v>0.5499596823094269</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5775873890461236</v>
+        <v>0.5810209898311095</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4698</v>
@@ -9660,19 +9660,19 @@
         <v>4109482</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4029313</v>
+        <v>4023867</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4195229</v>
+        <v>4191728</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5749856445547394</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5637686920421925</v>
+        <v>0.5630065800679475</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5869830809602137</v>
+        <v>0.5864931857473759</v>
       </c>
     </row>
     <row r="29">
@@ -9689,19 +9689,19 @@
         <v>1010022</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>956156</v>
+        <v>950837</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1066138</v>
+        <v>1065548</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2913213033834324</v>
+        <v>0.2913213033834325</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2757847813567715</v>
+        <v>0.2742503904849213</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3075067554154273</v>
+        <v>0.3073367025850519</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1684</v>
@@ -9710,19 +9710,19 @@
         <v>1132104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1087584</v>
+        <v>1083584</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1186034</v>
+        <v>1182567</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3076315692084755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.295533906843215</v>
+        <v>0.2944468272476979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3222859675462407</v>
+        <v>0.3213439870441566</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2714</v>
@@ -9731,19 +9731,19 @@
         <v>2142127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2061825</v>
+        <v>2067768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2214408</v>
+        <v>2213035</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.299719509897685</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2884840133201029</v>
+        <v>0.2893155225819039</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3098329395649274</v>
+        <v>0.3096407473563515</v>
       </c>
     </row>
     <row r="30">
@@ -9760,19 +9760,19 @@
         <v>271032</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>239963</v>
+        <v>238994</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>305928</v>
+        <v>303933</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07817380185268302</v>
+        <v>0.07817380185268301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06921269394034957</v>
+        <v>0.06893326884456755</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08823903515932127</v>
+        <v>0.08766347651832856</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>419</v>
@@ -9781,19 +9781,19 @@
         <v>269488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>242449</v>
+        <v>242657</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>295408</v>
+        <v>293614</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07322909678408775</v>
+        <v>0.07322909678408776</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06588162702581563</v>
+        <v>0.06593815209657082</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08027250051630296</v>
+        <v>0.0797849712555735</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>694</v>
@@ -9802,19 +9802,19 @@
         <v>540519</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>495470</v>
+        <v>502143</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>585981</v>
+        <v>589595</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07562775786029306</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0693245828461766</v>
+        <v>0.07025824535552233</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08198860123258445</v>
+        <v>0.08249418847123011</v>
       </c>
     </row>
     <row r="31">
@@ -9831,19 +9831,19 @@
         <v>104386</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>84353</v>
+        <v>87093</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>127778</v>
+        <v>125724</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0301081666741825</v>
+        <v>0.03010816667418251</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02432988047452136</v>
+        <v>0.02512020007160927</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03685504042505779</v>
+        <v>0.03626271487363571</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>236</v>
@@ -9852,19 +9852,19 @@
         <v>147855</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>130310</v>
+        <v>132408</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>167781</v>
+        <v>169537</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04017733547643091</v>
+        <v>0.04017733547643092</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03540967489614794</v>
+        <v>0.03597984704938996</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04559187132040773</v>
+        <v>0.04606890446951684</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>357</v>
@@ -9873,19 +9873,19 @@
         <v>252241</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>226224</v>
+        <v>225386</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>282175</v>
+        <v>280085</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03529281295372452</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03165252059896365</v>
+        <v>0.03153528280582886</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03948100871616168</v>
+        <v>0.03918859876806136</v>
       </c>
     </row>
     <row r="32">
@@ -9902,19 +9902,19 @@
         <v>48543</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35888</v>
+        <v>37749</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63364</v>
+        <v>63564</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0140011675047092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0103512132788515</v>
+        <v>0.01088806982880324</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0182760113817409</v>
+        <v>0.01833368709395346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>83</v>
@@ -9923,19 +9923,19 @@
         <v>54192</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42457</v>
+        <v>42651</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66849</v>
+        <v>66828</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01472578389434422</v>
+        <v>0.01472578389434423</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01153714609418274</v>
+        <v>0.01158962476737668</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01816528848791592</v>
+        <v>0.01815938832003905</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>141</v>
@@ -9944,19 +9944,19 @@
         <v>102734</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85619</v>
+        <v>86647</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>121528</v>
+        <v>121108</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01437427473355787</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01197959550105866</v>
+        <v>0.01212340293410842</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01700379687096646</v>
+        <v>0.01694504026070799</v>
       </c>
     </row>
     <row r="33">
